--- a/medicine/Médecine vétérinaire/Pseudoterranova_decipiens/Pseudoterranova_decipiens.xlsx
+++ b/medicine/Médecine vétérinaire/Pseudoterranova_decipiens/Pseudoterranova_decipiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Communément appelé ver de phoque ou ver de morue, Pseudoterranova decipiens (Krabbe, 1978) est une espèce de vers parasites courant des phoques et de certains poissons ; elle appartient à la famille des anisakidés et à l'embranchement des nématodes.
 Son cycle de vie, comprenant différents formes larvaires, exige un passage chez différents hôtes, faisant ainsi la boucle de la chaîne alimentaire: les œufs sont évacués avec les selles de phoque (ou de mammifère marin) puis deviennent des larves qui seront mangés par de petits crustacés, notamment les mysidés. Ce premier hôte devient alors le théâtre d'un nouveau stade larvaire jusqu'à ce qu'il soit mangé par un poisson ou un calmar. C'est à ce moment, où nous intervenons comme prédateur, que nous pouvons devenir parasité par ce nématode. Normalement, un mammifère marin joue ce rôle et devient l'hôte définitif où le P. decipiens vie son dernier stade larvaire et sa forme adulte.
